--- a/module/calibration/resultCalibration.xlsx
+++ b/module/calibration/resultCalibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.bauduin\Documents\GitHub\appendix_lynxIBM\module\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F861E-4C7D-4B71-94A6-9877B963F4A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE6493B-EFD7-4F5D-B727-A6EE271D84A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>pMortRes</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>Values to match</t>
-  </si>
-  <si>
-    <t>meanDisp Alps</t>
-  </si>
-  <si>
-    <t>medianDispAlps</t>
-  </si>
-  <si>
-    <t>meanDispJura</t>
-  </si>
-  <si>
-    <t>medianDispJura</t>
   </si>
   <si>
     <t>pRepro</t>
@@ -421,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,14 +427,10 @@
     <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -463,22 +447,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="K1" s="4">
-        <v>27</v>
-      </c>
-      <c r="L1" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="M1" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="N1" s="4">
-        <v>33</v>
-      </c>
-      <c r="O1" s="4">
         <v>0.81</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -495,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -512,20 +484,8 @@
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -557,22 +517,10 @@
         <v>0.6373837</v>
       </c>
       <c r="K3" s="2">
-        <v>26.606000000000002</v>
-      </c>
-      <c r="L3" s="2">
-        <v>13.795</v>
-      </c>
-      <c r="M3" s="2">
-        <v>28.03</v>
-      </c>
-      <c r="N3" s="2">
-        <v>15.93</v>
-      </c>
-      <c r="O3" s="2">
         <v>0.64639999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -604,22 +552,10 @@
         <v>0.29383749999999997</v>
       </c>
       <c r="K4" s="2">
-        <v>24.96</v>
-      </c>
-      <c r="L4" s="2">
-        <v>15.11</v>
-      </c>
-      <c r="M4" s="2">
-        <v>26.49</v>
-      </c>
-      <c r="N4" s="2">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="O4" s="2">
         <v>0.74070000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -651,22 +587,10 @@
         <v>0.2936318</v>
       </c>
       <c r="K5" s="2">
-        <v>25.83</v>
-      </c>
-      <c r="L5" s="2">
-        <v>15.52</v>
-      </c>
-      <c r="M5" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="O5" s="2">
         <v>0.78639999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -698,22 +622,10 @@
         <v>0.28155419999999998</v>
       </c>
       <c r="K6" s="2">
-        <v>25.95</v>
-      </c>
-      <c r="L6" s="2">
-        <v>15.52</v>
-      </c>
-      <c r="M6" s="2">
-        <v>27.74</v>
-      </c>
-      <c r="N6" s="2">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="O6" s="2">
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -745,42 +657,30 @@
         <v>0.28972389999999998</v>
       </c>
       <c r="K7" s="8">
-        <v>26.57</v>
-      </c>
-      <c r="L7" s="8">
-        <v>15.57</v>
-      </c>
-      <c r="M7" s="8">
-        <v>27.86</v>
-      </c>
-      <c r="N7" s="8">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="O7" s="8">
         <v>0.81710000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -791,10 +691,6 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/module/calibration/resultCalibration.xlsx
+++ b/module/calibration/resultCalibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.bauduin\Documents\GitHub\appendix_lynxIBM\module\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE6493B-EFD7-4F5D-B727-A6EE271D84A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B87C58-E460-4BE2-9129-E4D93E457112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>pMortRes</t>
-  </si>
-  <si>
-    <t>pMortDisp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>corrFactorRes</t>
   </si>
@@ -39,25 +33,130 @@
     <t>corrFactorDisp</t>
   </si>
   <si>
-    <t>rCollDisp</t>
-  </si>
-  <si>
-    <t>rCollRes</t>
-  </si>
-  <si>
-    <t>rNoCollDisp</t>
-  </si>
-  <si>
-    <t>rNoCollRes</t>
-  </si>
-  <si>
-    <t>Calibration</t>
-  </si>
-  <si>
     <t>Values to match</t>
   </si>
   <si>
     <t>pRepro</t>
+  </si>
+  <si>
+    <t>rRepro</t>
+  </si>
+  <si>
+    <t>Calibration trial 1</t>
+  </si>
+  <si>
+    <t>Calibration trial 2</t>
+  </si>
+  <si>
+    <t>Calibration trial 3</t>
+  </si>
+  <si>
+    <t>Calibration trial 4</t>
+  </si>
+  <si>
+    <t>Calibration trial 5</t>
+  </si>
+  <si>
+    <t>Calibration trial 6</t>
+  </si>
+  <si>
+    <t>meanDistDispAlps</t>
+  </si>
+  <si>
+    <t>medianDistDispAlps</t>
+  </si>
+  <si>
+    <t>meanDistDispJura</t>
+  </si>
+  <si>
+    <t>medianDistDispJura</t>
+  </si>
+  <si>
+    <t>Natal dispersal of Eurasian lynx (Lynx lynx) in Switzerland</t>
+  </si>
+  <si>
+    <t>72 (Alps); 112 (Jura)</t>
+  </si>
+  <si>
+    <t>meanDispTime</t>
+  </si>
+  <si>
+    <t>Calibration trial 7</t>
+  </si>
+  <si>
+    <t>Calibration trial 8</t>
+  </si>
+  <si>
+    <t>Calibration trial 9</t>
+  </si>
+  <si>
+    <t>Calibration trial 10</t>
+  </si>
+  <si>
+    <t>Calibration trial 11</t>
+  </si>
+  <si>
+    <t>Calibration trial 12</t>
+  </si>
+  <si>
+    <t>Calibration trial 13</t>
+  </si>
+  <si>
+    <t>Calibration trial 14</t>
+  </si>
+  <si>
+    <t>Calibration trial 15</t>
+  </si>
+  <si>
+    <t>Calibration trial 16</t>
+  </si>
+  <si>
+    <t>Calibration trial 17</t>
+  </si>
+  <si>
+    <t>Calibration trial 18</t>
+  </si>
+  <si>
+    <t>Calibration trial 19</t>
+  </si>
+  <si>
+    <t>Calibration trial 20</t>
+  </si>
+  <si>
+    <t>rNoCollRes_Jura</t>
+  </si>
+  <si>
+    <t>rNoCollDisp_Jura</t>
+  </si>
+  <si>
+    <t>rCollRes_Jura</t>
+  </si>
+  <si>
+    <t>rCollDisp_Jura</t>
+  </si>
+  <si>
+    <t>rNoCollRes_Alps</t>
+  </si>
+  <si>
+    <t>rNoCollDisp_Alps</t>
+  </si>
+  <si>
+    <t>rCollRes_Alps</t>
+  </si>
+  <si>
+    <t>rCollDisp_Alps</t>
+  </si>
+  <si>
+    <t>pMortRes_Alps</t>
+  </si>
+  <si>
+    <t>pMortDisp_Alps</t>
+  </si>
+  <si>
+    <t>pMortRes_Jura</t>
+  </si>
+  <si>
+    <t>pMortDisp_Jura</t>
   </si>
 </sst>
 </file>
@@ -87,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +205,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -129,6 +240,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,85 +526,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0.193</v>
-      </c>
-      <c r="H1" s="4">
-        <v>0.224</v>
-      </c>
-      <c r="I1" s="4">
+    <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="L2" s="11">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O2" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P2" s="11">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J1" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K1" s="4">
+      <c r="Q2" s="11">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="R2" s="11">
+        <v>27</v>
+      </c>
+      <c r="S2" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="T2" s="11">
+        <v>33</v>
+      </c>
+      <c r="U2" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
@@ -496,201 +724,1095 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>0.81</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.1210228</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.5733160000000002E-2</v>
-      </c>
       <c r="I3" s="2">
-        <v>8.0734770000000008E-3</v>
+        <v>0.1312769</v>
       </c>
       <c r="J3" s="2">
-        <v>0.6373837</v>
+        <v>5.3885179999999998E-2</v>
       </c>
       <c r="K3" s="2">
-        <v>0.64639999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+        <v>8.6611210000000008E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.67810479999999995</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.1301659</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.6199169999999998E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8.1586760000000001E-3</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.69906239999999997</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="C4" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.19236890000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.16090550000000001</v>
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>8.0110749999999994E-2</v>
+        <v>0.19049240000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>0.29383749999999997</v>
+        <v>0.23307149999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.74070000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+        <v>4.065448E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.11641890000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.19231590000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.24004200000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3.0793830000000001E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8.4758819999999999E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>0.18</v>
       </c>
       <c r="C5" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.23082040000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.23753740000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.1628040000000003E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.31629689999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.13018740000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.21246380000000001</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2.8650720000000001E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.436836</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="R5" s="2">
+        <v>17.103999999999999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>14.125999999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <v>23.518999999999998</v>
+      </c>
+      <c r="U5" s="2">
+        <v>18.201000000000001</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="B6" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>125</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.1935125</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.17914289999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>6.4371570000000003E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.2936318</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.78639999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.20384269999999999</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.21199779999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5.6471159999999999E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.28155419999999998</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.83199999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.1867723</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.21815490000000001</v>
-      </c>
-      <c r="I7" s="8">
-        <v>6.579488E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.28972389999999998</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.81710000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:62" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/module/calibration/resultCalibration.xlsx
+++ b/module/calibration/resultCalibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.bauduin\Documents\GitHub\appendix_lynxIBM\module\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B87C58-E460-4BE2-9129-E4D93E457112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACBE407-46D3-435B-A190-A06BD83D6B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,31 +739,46 @@
         <v>0.81</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1312769</v>
+        <v>0.12790589999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>5.3885179999999998E-2</v>
+        <v>5.0489539999999999E-2</v>
       </c>
       <c r="K3" s="2">
-        <v>8.6611210000000008E-3</v>
+        <v>9.4335649999999997E-3</v>
       </c>
       <c r="L3" s="2">
-        <v>0.67810479999999995</v>
+        <v>0.69199659999999996</v>
       </c>
       <c r="M3" s="2">
-        <v>0.1301659</v>
+        <v>0.13326579999999999</v>
       </c>
       <c r="N3" s="2">
-        <v>4.6199169999999998E-2</v>
+        <v>4.6422060000000001E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>8.1586760000000001E-3</v>
+        <v>7.6304370000000003E-3</v>
       </c>
       <c r="P3" s="2">
-        <v>0.69906239999999997</v>
+        <v>0.69045000000000001</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.58240000000000003</v>
+        <v>0.5716</v>
+      </c>
+      <c r="R3" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="S3" s="2">
+        <v>11.282999999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>14.081</v>
+      </c>
+      <c r="U3" s="2">
+        <v>13.131</v>
+      </c>
+      <c r="V3" s="2">
+        <v>37.600569999999998</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -811,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="C4" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -829,34 +844,49 @@
         <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="2">
-        <v>0.19049240000000001</v>
+        <v>0.2166997</v>
       </c>
       <c r="J4" s="2">
-        <v>0.23307149999999999</v>
+        <v>0.24007490000000001</v>
       </c>
       <c r="K4" s="2">
-        <v>4.065448E-2</v>
+        <v>3.8433229999999999E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>0.11641890000000001</v>
+        <v>0.1074761</v>
       </c>
       <c r="M4" s="2">
-        <v>0.19231590000000001</v>
+        <v>0.1351551</v>
       </c>
       <c r="N4" s="2">
-        <v>0.24004200000000001</v>
+        <v>0.28487230000000002</v>
       </c>
       <c r="O4" s="2">
-        <v>3.0793830000000001E-2</v>
+        <v>2.905346E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>8.4758819999999999E-2</v>
+        <v>8.375581E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.85909999999999997</v>
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="R4" s="2">
+        <v>23.652000000000001</v>
+      </c>
+      <c r="S4" s="2">
+        <v>17.378</v>
+      </c>
+      <c r="T4" s="2">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="U4" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="V4" s="2">
+        <v>209.62020000000001</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -904,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C5" s="1">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
@@ -916,52 +946,55 @@
         <v>1E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I5" s="2">
-        <v>0.23082040000000001</v>
+        <v>0.21785769999999999</v>
       </c>
       <c r="J5" s="2">
-        <v>0.23753740000000001</v>
+        <v>0.2151333</v>
       </c>
       <c r="K5" s="2">
-        <v>3.1628040000000003E-2</v>
+        <v>3.5289920000000002E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>0.31629689999999999</v>
+        <v>0.1049175</v>
       </c>
       <c r="M5" s="2">
-        <v>0.13018740000000001</v>
+        <v>0.13618659999999999</v>
       </c>
       <c r="N5" s="2">
-        <v>0.21246380000000001</v>
+        <v>0.28694770000000003</v>
       </c>
       <c r="O5" s="2">
-        <v>2.8650720000000001E-2</v>
+        <v>2.3888300000000001E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>0.436836</v>
+        <v>7.1929859999999998E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.77549999999999997</v>
+        <v>0.79869999999999997</v>
       </c>
       <c r="R5" s="2">
-        <v>17.103999999999999</v>
+        <v>24.83</v>
       </c>
       <c r="S5" s="2">
-        <v>14.125999999999999</v>
+        <v>17.84</v>
       </c>
       <c r="T5" s="2">
-        <v>23.518999999999998</v>
+        <v>35.49</v>
       </c>
       <c r="U5" s="2">
-        <v>18.201000000000001</v>
+        <v>25.34</v>
+      </c>
+      <c r="V5" s="2">
+        <v>229.90469999999999</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1012,22 +1045,49 @@
         <v>0.17</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
       </c>
       <c r="E6" s="1">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.21694530000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.19123680000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.1504020000000003E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9.8006029999999994E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.1330086</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.28660570000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.9265889999999999E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>6.1680310000000002E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.80330000000000001</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1078,32 +1138,50 @@
         <v>0.17</v>
       </c>
       <c r="C7" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
       <c r="E7" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F7" s="1">
         <v>2.5</v>
       </c>
       <c r="G7" s="1">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H7" s="1">
         <v>0.95</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="I7" s="2">
+        <v>0.21780579999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1657285</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.6229909999999997E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9.7496830000000007E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.13641610000000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.28463240000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.3760819999999998E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5.3918300000000002E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.80520000000000003</v>
+      </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -1154,15 +1232,54 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="B8" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>140</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.21923909999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.16565589999999999</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4.7928129999999999E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.1034771</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.13285430000000001</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.28131410000000001</v>
+      </c>
+      <c r="O8" s="8">
+        <v>3.40547E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>6.5316170000000007E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.80489999999999995</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
